--- a/students_performance.xlsx
+++ b/students_performance.xlsx
@@ -999,8 +999,9 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Score: 0%; Feedback: The correct answer was 'Carbohydrates'
+          <t xml:space="preserve">Score: 0%, Feedback: The correct answer was 'Carbohydrates'
 Correction: Lipids
+main component of cell membrane
 </t>
         </is>
       </c>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Score: 100% The correct answer was 'Amino acid composition'</t>
+          <t>Score: 100%, Feedback: The correct answer was 'Amino acid composition'</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1030,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Score: 100% The correct answer was 'To produce energy for the cell'</t>
+          <t>Score: 100%, Feedback: The correct answer was 'To produce energy for the cell'</t>
         </is>
       </c>
     </row>
